--- a/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
@@ -650,16 +650,16 @@
         <v>1.42</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -719,19 +719,19 @@
         <v>451</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="n">
         <v>126</v>
       </c>
       <c r="AI2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ2" t="n">
         <v>81</v>
@@ -781,7 +781,7 @@
         <v>1.07</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
@@ -960,7 +960,7 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
@@ -1034,10 +1034,10 @@
         <v>5.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P5" t="n">
         <v>1.25</v>
@@ -1055,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="U5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V5" t="n">
         <v>9</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1162,10 +1162,10 @@
         <v>2.05</v>
       </c>
       <c r="P6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R6" t="n">
         <v>1.62</v>
@@ -1177,16 +1177,16 @@
         <v>9</v>
       </c>
       <c r="U6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V6" t="n">
         <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>23</v>
@@ -1207,10 +1207,10 @@
         <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1219,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
         <v>29</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1272,22 +1272,22 @@
         <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
         <v>1.67</v>
@@ -1308,7 +1308,7 @@
         <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>21</v>
@@ -1317,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB7" t="n">
         <v>13</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
@@ -1510,10 +1510,10 @@
         <v>2.35</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1760,31 +1760,31 @@
         <v>12</v>
       </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O11" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U11" t="n">
         <v>8.5</v>
@@ -1811,7 +1811,7 @@
         <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="n">
         <v>201</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="J12" t="n">
         <v>1.07</v>
@@ -1906,10 +1906,10 @@
         <v>1.91</v>
       </c>
       <c r="T12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V12" t="n">
         <v>11</v>
@@ -1918,13 +1918,13 @@
         <v>29</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
         <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
         <v>6</v>
@@ -1939,16 +1939,16 @@
         <v>301</v>
       </c>
       <c r="AE12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
@@ -1995,13 +1995,13 @@
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2010,10 +2010,10 @@
         <v>2.75</v>
       </c>
       <c r="N13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
         <v>1.5</v>
@@ -2034,7 +2034,7 @@
         <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W13" t="n">
         <v>51</v>
@@ -2058,13 +2058,13 @@
         <v>67</v>
       </c>
       <c r="AD13" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE13" t="n">
         <v>6</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG13" t="n">
         <v>9</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2126,31 +2126,31 @@
         <v>15</v>
       </c>
       <c r="L14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O14" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U14" t="n">
         <v>17</v>
@@ -2165,25 +2165,25 @@
         <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
         <v>13</v>
@@ -2198,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J15" t="n">
         <v>1.07</v>
@@ -2275,13 +2275,13 @@
         <v>7.5</v>
       </c>
       <c r="U15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V15" t="n">
         <v>10</v>
       </c>
       <c r="W15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2302,10 +2302,10 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
         <v>13</v>
@@ -2317,7 +2317,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
@@ -2489,7 +2489,7 @@
         <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H20" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I20" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.05</v>
@@ -2858,16 +2858,16 @@
         <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O20" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -2876,22 +2876,22 @@
         <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
         <v>13</v>
@@ -2900,13 +2900,13 @@
         <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC20" t="n">
         <v>81</v>
@@ -2915,22 +2915,22 @@
         <v>501</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AI20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -2980,16 +2980,16 @@
         <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P21" t="n">
         <v>1.36</v>
@@ -2998,16 +2998,16 @@
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T21" t="n">
         <v>17</v>
       </c>
       <c r="U21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V21" t="n">
         <v>21</v>
@@ -3022,25 +3022,25 @@
         <v>51</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
         <v>9</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE21" t="n">
         <v>6.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG21" t="n">
         <v>8.5</v>
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
         <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
         <v>1.04</v>
@@ -3120,10 +3120,10 @@
         <v>3.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
         <v>11</v>
@@ -3135,13 +3135,13 @@
         <v>11</v>
       </c>
       <c r="W22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z22" t="n">
         <v>13</v>
@@ -3159,10 +3159,10 @@
         <v>151</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
         <v>9</v>
@@ -3209,10 +3209,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
         <v>2.35</v>
@@ -3269,7 +3269,7 @@
         <v>12</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB23" t="n">
         <v>13</v>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
@@ -3352,25 +3352,25 @@
         <v>2.5</v>
       </c>
       <c r="N24" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U24" t="n">
         <v>15</v>
@@ -3394,10 +3394,10 @@
         <v>6</v>
       </c>
       <c r="AB24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD24" t="n">
         <v>451</v>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J25" t="n">
         <v>1.05</v>
@@ -3480,25 +3480,25 @@
         <v>1.85</v>
       </c>
       <c r="P25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V25" t="n">
         <v>9</v>
-      </c>
-      <c r="V25" t="n">
-        <v>8.5</v>
       </c>
       <c r="W25" t="n">
         <v>17</v>
@@ -3507,10 +3507,10 @@
         <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
         <v>6.5</v>
@@ -3537,10 +3537,10 @@
         <v>41</v>
       </c>
       <c r="AI25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -3709,7 +3709,7 @@
         <v>1.03</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L27" t="n">
         <v>1.17</v>
@@ -3724,10 +3724,10 @@
         <v>2.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R27" t="n">
         <v>1.5</v>
@@ -3736,13 +3736,13 @@
         <v>2.5</v>
       </c>
       <c r="T27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U27" t="n">
         <v>15</v>
       </c>
       <c r="V27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W27" t="n">
         <v>23</v>
@@ -3754,7 +3754,7 @@
         <v>21</v>
       </c>
       <c r="Z27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
         <v>7</v>
@@ -3769,7 +3769,7 @@
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF27" t="n">
         <v>17</v>
@@ -3819,19 +3819,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L28" t="n">
         <v>1.25</v>
@@ -3840,10 +3840,10 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>
@@ -3858,10 +3858,10 @@
         <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V28" t="n">
         <v>13</v>
@@ -3876,7 +3876,7 @@
         <v>34</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
         <v>7</v>
@@ -3906,7 +3906,7 @@
         <v>15</v>
       </c>
       <c r="AJ28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">

--- a/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
@@ -662,16 +662,16 @@
         <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -695,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
         <v>1.07</v>
       </c>
       <c r="K3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
@@ -808,22 +808,22 @@
         <v>1.91</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V3" t="n">
         <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X3" t="n">
         <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="n">
         <v>8.5</v>
@@ -841,7 +841,7 @@
         <v>401</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
@@ -939,7 +939,7 @@
         <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -948,7 +948,7 @@
         <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>7</v>
@@ -960,10 +960,10 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
@@ -1025,19 +1025,19 @@
         <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O5" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P5" t="n">
         <v>1.25</v>
@@ -1150,16 +1150,16 @@
         <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P6" t="n">
         <v>1.33</v>
@@ -1168,7 +1168,7 @@
         <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
         <v>2.2</v>
@@ -1266,22 +1266,22 @@
         <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O7" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P7" t="n">
         <v>1.3</v>
@@ -1290,13 +1290,13 @@
         <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S7" t="n">
         <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U7" t="n">
         <v>9</v>
@@ -1314,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>7.5</v>
@@ -1341,10 +1341,10 @@
         <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1388,34 +1388,34 @@
         <v>2.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T8" t="n">
         <v>6.5</v>
@@ -1451,10 +1451,10 @@
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1537,7 +1537,7 @@
         <v>2.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T9" t="n">
         <v>7.5</v>
@@ -1549,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="W9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X9" t="n">
         <v>34</v>
@@ -1567,7 +1567,7 @@
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
@@ -1576,13 +1576,13 @@
         <v>6</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>23</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
         <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
         <v>1.22</v>
@@ -1793,7 +1793,7 @@
         <v>8.5</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -1802,7 +1802,7 @@
         <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>7.5</v>
@@ -1832,7 +1832,7 @@
         <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -2126,16 +2126,16 @@
         <v>15</v>
       </c>
       <c r="L14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P14" t="n">
         <v>1.3</v>
@@ -2364,10 +2364,10 @@
         <v>2.15</v>
       </c>
       <c r="J16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
         <v>1.33</v>
@@ -2858,16 +2858,16 @@
         <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -2986,10 +2986,10 @@
         <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O21" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P21" t="n">
         <v>1.36</v>
@@ -3108,10 +3108,10 @@
         <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P22" t="n">
         <v>1.33</v>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
         <v>1.04</v>
       </c>
       <c r="K23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L23" t="n">
         <v>1.25</v>
@@ -3757,7 +3757,7 @@
         <v>17</v>
       </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB27" t="n">
         <v>11</v>
@@ -3819,19 +3819,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
         <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L28" t="n">
         <v>1.25</v>
@@ -3840,10 +3840,10 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>
@@ -3864,25 +3864,25 @@
         <v>19</v>
       </c>
       <c r="V28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W28" t="n">
         <v>41</v>
       </c>
       <c r="X28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
         <v>34</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
         <v>7</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
         <v>41</v>
@@ -3894,10 +3894,10 @@
         <v>8</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
         <v>17</v>
@@ -3906,7 +3906,7 @@
         <v>15</v>
       </c>
       <c r="AJ28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -3941,94 +3941,94 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I29" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="J29" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L29" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N29" t="n">
         <v>1.7</v>
       </c>
       <c r="O29" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P29" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="R29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S29" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="T29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U29" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="X29" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
         <v>22</v>
       </c>
       <c r="Z29" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AB29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD29" t="n">
         <v>300</v>
       </c>
       <c r="AE29" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AH29" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
@@ -656,10 +656,10 @@
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -674,22 +674,22 @@
         <v>1.73</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
         <v>10</v>
@@ -725,13 +725,13 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH2" t="n">
         <v>126</v>
       </c>
       <c r="AI2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="n">
         <v>81</v>
@@ -781,7 +781,7 @@
         <v>1.07</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
@@ -817,13 +817,13 @@
         <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X3" t="n">
         <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
         <v>8.5</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
@@ -912,10 +912,10 @@
         <v>3.5</v>
       </c>
       <c r="N4" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="O4" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -930,25 +930,25 @@
         <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V4" t="n">
         <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>7</v>
@@ -960,10 +960,10 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
@@ -975,7 +975,7 @@
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1168,7 +1168,7 @@
         <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>2.2</v>
@@ -1180,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="V6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W6" t="n">
         <v>19</v>
@@ -1189,13 +1189,13 @@
         <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="n">
         <v>12</v>
@@ -1210,13 +1210,13 @@
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
         <v>26</v>
@@ -1260,10 +1260,10 @@
         <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1272,10 +1272,10 @@
         <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N7" t="n">
         <v>1.6</v>
@@ -1290,10 +1290,10 @@
         <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
         <v>9</v>
@@ -1335,7 +1335,7 @@
         <v>29</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>51</v>
@@ -1394,10 +1394,10 @@
         <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N8" t="n">
         <v>2.7</v>
@@ -1412,10 +1412,10 @@
         <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
         <v>6.5</v>
@@ -1537,7 +1537,7 @@
         <v>2.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
         <v>7.5</v>
@@ -1635,7 +1635,7 @@
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="n">
         <v>1.22</v>
@@ -1644,16 +1644,16 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R10" t="n">
         <v>1.7</v>
@@ -1686,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
         <v>41</v>
@@ -1710,7 +1710,7 @@
         <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.07</v>
@@ -2028,10 +2028,10 @@
         <v>1.7</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V13" t="n">
         <v>17</v>
@@ -2070,7 +2070,7 @@
         <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>17</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2126,16 +2126,16 @@
         <v>15</v>
       </c>
       <c r="L14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P14" t="n">
         <v>1.3</v>
@@ -2144,10 +2144,10 @@
         <v>3.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
         <v>13</v>
@@ -2159,7 +2159,7 @@
         <v>11</v>
       </c>
       <c r="W14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
@@ -2174,7 +2174,7 @@
         <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
         <v>34</v>
@@ -2189,13 +2189,13 @@
         <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>21</v>
@@ -2233,19 +2233,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H15" t="n">
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>1.07</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.36</v>
@@ -2260,10 +2260,10 @@
         <v>1.67</v>
       </c>
       <c r="P15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R15" t="n">
         <v>1.91</v>
@@ -2275,13 +2275,13 @@
         <v>7.5</v>
       </c>
       <c r="U15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2305,19 +2305,19 @@
         <v>301</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
@@ -2489,7 +2489,7 @@
         <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2965,19 +2965,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="J21" t="n">
         <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L21" t="n">
         <v>1.22</v>
@@ -2986,16 +2986,16 @@
         <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O21" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R21" t="n">
         <v>2</v>
@@ -3007,7 +3007,7 @@
         <v>17</v>
       </c>
       <c r="U21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V21" t="n">
         <v>21</v>
@@ -3025,7 +3025,7 @@
         <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB21" t="n">
         <v>21</v>
@@ -3037,7 +3037,7 @@
         <v>401</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
         <v>6.5</v>
@@ -3108,10 +3108,10 @@
         <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P22" t="n">
         <v>1.33</v>
@@ -3590,16 +3590,16 @@
         <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N26" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O26" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -3828,10 +3828,10 @@
         <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28" t="n">
         <v>1.25</v>
@@ -3840,10 +3840,10 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
@@ -656,22 +656,22 @@
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
         <v>1.07</v>
       </c>
       <c r="K3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
@@ -790,10 +790,10 @@
         <v>3.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -841,7 +841,7 @@
         <v>401</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
@@ -894,7 +894,7 @@
         <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>3.1</v>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
         <v>12</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.7</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1150,16 +1150,16 @@
         <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P6" t="n">
         <v>1.33</v>
@@ -1180,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="V6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W6" t="n">
         <v>19</v>
@@ -1189,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
         <v>13</v>
@@ -1198,7 +1198,7 @@
         <v>7</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>41</v>
@@ -1207,13 +1207,13 @@
         <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
@@ -1635,7 +1635,7 @@
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
         <v>1.22</v>
@@ -1772,10 +1772,10 @@
         <v>2.05</v>
       </c>
       <c r="P11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
         <v>1.75</v>
@@ -1793,7 +1793,7 @@
         <v>8.5</v>
       </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -1802,7 +1802,7 @@
         <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>7.5</v>
@@ -1811,7 +1811,7 @@
         <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD11" t="n">
         <v>201</v>
@@ -1832,7 +1832,7 @@
         <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
         <v>1.07</v>
@@ -2314,7 +2314,7 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
@@ -2733,7 +2733,7 @@
         <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
         <v>1.36</v>
@@ -3346,10 +3346,10 @@
         <v>7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N24" t="n">
         <v>2.5</v>
@@ -3474,10 +3474,10 @@
         <v>3.5</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P25" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
@@ -647,31 +647,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -680,22 +680,22 @@
         <v>2.63</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V2" t="n">
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -719,22 +719,22 @@
         <v>451</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -790,10 +790,10 @@
         <v>3.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
@@ -912,10 +912,10 @@
         <v>3.5</v>
       </c>
       <c r="N4" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U4" t="n">
         <v>12</v>
@@ -945,7 +945,7 @@
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
         <v>10</v>
@@ -969,16 +969,16 @@
         <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -1019,7 +1019,7 @@
         <v>6.25</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
@@ -1028,34 +1028,34 @@
         <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O5" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V5" t="n">
         <v>9</v>
@@ -1067,13 +1067,13 @@
         <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
@@ -1082,10 +1082,10 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1100,7 +1100,7 @@
         <v>51</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1168,22 +1168,22 @@
         <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1207,22 +1207,22 @@
         <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1317,7 +1317,7 @@
         <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB7" t="n">
         <v>13</v>
@@ -1335,7 +1335,7 @@
         <v>29</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>51</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
         <v>1.13</v>
@@ -1400,16 +1400,16 @@
         <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
         <v>2.25</v>
@@ -1418,10 +1418,10 @@
         <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V8" t="n">
         <v>12</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1564,7 +1564,7 @@
         <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
         <v>81</v>
@@ -1576,7 +1576,7 @@
         <v>6</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="n">
         <v>1.22</v>
@@ -1644,16 +1644,16 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
         <v>1.7</v>
@@ -1665,7 +1665,7 @@
         <v>8</v>
       </c>
       <c r="U10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
@@ -1674,7 +1674,7 @@
         <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1692,22 +1692,22 @@
         <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
@@ -1766,10 +1766,10 @@
         <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>1.36</v>
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2022,16 +2022,16 @@
         <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T13" t="n">
         <v>11</v>
       </c>
       <c r="U13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V13" t="n">
         <v>17</v>
@@ -2046,10 +2046,10 @@
         <v>51</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="n">
         <v>19</v>
@@ -2061,10 +2061,10 @@
         <v>501</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
         <v>9</v>
@@ -2073,7 +2073,7 @@
         <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
         <v>34</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H15" t="n">
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>1.07</v>
@@ -2314,7 +2314,7 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
@@ -2376,10 +2376,10 @@
         <v>3.25</v>
       </c>
       <c r="N16" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O16" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P16" t="n">
         <v>1.44</v>
@@ -2498,10 +2498,10 @@
         <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O17" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2733,7 +2733,7 @@
         <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.36</v>
@@ -2858,16 +2858,16 @@
         <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O20" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -2974,10 +2974,10 @@
         <v>1.36</v>
       </c>
       <c r="J21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L21" t="n">
         <v>1.22</v>
@@ -3090,10 +3090,10 @@
         <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J22" t="n">
         <v>1.04</v>
@@ -3102,34 +3102,34 @@
         <v>13</v>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N22" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="O22" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="P22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V22" t="n">
         <v>11</v>
@@ -3138,34 +3138,34 @@
         <v>29</v>
       </c>
       <c r="X22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
         <v>41</v>
       </c>
       <c r="AD22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG22" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>9</v>
       </c>
       <c r="AH22" t="n">
         <v>21</v>
@@ -3174,7 +3174,7 @@
         <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J23" t="n">
         <v>1.04</v>
       </c>
       <c r="K23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L23" t="n">
         <v>1.25</v>
@@ -3331,25 +3331,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N24" t="n">
         <v>2.5</v>
@@ -3370,7 +3370,7 @@
         <v>1.67</v>
       </c>
       <c r="T24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U24" t="n">
         <v>15</v>
@@ -3400,7 +3400,7 @@
         <v>67</v>
       </c>
       <c r="AD24" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
@@ -3415,7 +3415,7 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J25" t="n">
         <v>1.05</v>
@@ -3495,16 +3495,16 @@
         <v>7.5</v>
       </c>
       <c r="U25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W25" t="n">
         <v>17</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
         <v>26</v>
@@ -3528,7 +3528,7 @@
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -3537,10 +3537,10 @@
         <v>41</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -3700,49 +3700,49 @@
         <v>2.4</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
       </c>
       <c r="K27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="O27" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="P27" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W27" t="n">
         <v>23</v>
@@ -3751,28 +3751,28 @@
         <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC27" t="n">
         <v>34</v>
       </c>
       <c r="AD27" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
@@ -3781,7 +3781,7 @@
         <v>29</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>23</v>
@@ -3947,13 +3947,13 @@
         <v>3.55</v>
       </c>
       <c r="I29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K29" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L29" t="n">
         <v>1.23</v>
@@ -3974,22 +3974,22 @@
         <v>2.95</v>
       </c>
       <c r="R29" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S29" t="n">
         <v>2.18</v>
       </c>
       <c r="T29" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U29" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V29" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W29" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
@@ -3998,10 +3998,10 @@
         <v>22</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB29" t="n">
         <v>12.5</v>
@@ -4016,7 +4016,7 @@
         <v>12.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>11.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
@@ -662,16 +662,16 @@
         <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -707,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
         <v>2.9</v>
@@ -790,10 +790,10 @@
         <v>3.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -823,7 +823,7 @@
         <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="n">
         <v>8.5</v>
@@ -841,7 +841,7 @@
         <v>401</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
@@ -912,10 +912,10 @@
         <v>3.5</v>
       </c>
       <c r="N4" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O4" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -969,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H5" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
         <v>8.5</v>
@@ -1028,10 +1028,10 @@
         <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
         <v>1.4</v>
@@ -1061,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
@@ -1073,7 +1073,7 @@
         <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
@@ -1085,7 +1085,7 @@
         <v>201</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1156,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P6" t="n">
         <v>1.33</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1296,19 +1296,19 @@
         <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
       </c>
       <c r="W7" t="n">
+        <v>15</v>
+      </c>
+      <c r="X7" t="n">
         <v>13</v>
-      </c>
-      <c r="X7" t="n">
-        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>21</v>
@@ -1317,7 +1317,7 @@
         <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB7" t="n">
         <v>13</v>
@@ -1326,19 +1326,19 @@
         <v>41</v>
       </c>
       <c r="AD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
         <v>34</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
         <v>1.13</v>
@@ -1400,16 +1400,16 @@
         <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
         <v>2.25</v>
@@ -1424,10 +1424,10 @@
         <v>11</v>
       </c>
       <c r="V8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X8" t="n">
         <v>29</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1555,7 +1555,7 @@
         <v>34</v>
       </c>
       <c r="Y9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z9" t="n">
         <v>6.5</v>
@@ -1573,7 +1573,7 @@
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF9" t="n">
         <v>9</v>
@@ -1585,7 +1585,7 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1638,16 +1638,16 @@
         <v>12</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1671,7 +1671,7 @@
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1683,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
@@ -1692,7 +1692,7 @@
         <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -1876,16 +1876,16 @@
         <v>2.55</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N12" t="n">
         <v>2.1</v>
@@ -1995,13 +1995,13 @@
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2022,10 +2022,10 @@
         <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T13" t="n">
         <v>11</v>
@@ -2052,10 +2052,10 @@
         <v>7</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="n">
         <v>501</v>
@@ -2070,7 +2070,7 @@
         <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -2114,7 +2114,7 @@
         <v>2.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
         <v>2.2</v>
@@ -2123,7 +2123,7 @@
         <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
         <v>1.17</v>
@@ -2132,16 +2132,16 @@
         <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O14" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R14" t="n">
         <v>1.5</v>
@@ -2153,7 +2153,7 @@
         <v>13</v>
       </c>
       <c r="U14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V14" t="n">
         <v>11</v>
@@ -2168,7 +2168,7 @@
         <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>7</v>
@@ -2189,7 +2189,7 @@
         <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
@@ -2245,7 +2245,7 @@
         <v>1.07</v>
       </c>
       <c r="K15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
         <v>1.36</v>
@@ -2355,19 +2355,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16" t="n">
         <v>1.33</v>
@@ -2376,10 +2376,10 @@
         <v>3.25</v>
       </c>
       <c r="N16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P16" t="n">
         <v>1.44</v>
@@ -2388,16 +2388,16 @@
         <v>2.63</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V16" t="n">
         <v>12</v>
@@ -2409,7 +2409,7 @@
         <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="n">
         <v>9</v>
@@ -2427,13 +2427,13 @@
         <v>301</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF16" t="n">
         <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
         <v>1.08</v>
@@ -2638,10 +2638,10 @@
         <v>1.67</v>
       </c>
       <c r="T18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
@@ -2650,7 +2650,7 @@
         <v>15</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
         <v>34</v>
@@ -2662,31 +2662,31 @@
         <v>6.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="n">
         <v>501</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="n">
         <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -2852,10 +2852,10 @@
         <v>8.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>1.29</v>
@@ -2876,10 +2876,10 @@
         <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T20" t="n">
         <v>5.5</v>
@@ -2900,22 +2900,22 @@
         <v>34</v>
       </c>
       <c r="Z20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA20" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>9</v>
       </c>
       <c r="AB20" t="n">
         <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD20" t="n">
         <v>501</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>41</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
         <v>4.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -3090,43 +3090,43 @@
         <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="P22" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U22" t="n">
         <v>15</v>
@@ -3141,25 +3141,25 @@
         <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE22" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -3171,10 +3171,10 @@
         <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -3209,13 +3209,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
         <v>1.04</v>
@@ -3278,7 +3278,7 @@
         <v>41</v>
       </c>
       <c r="AD23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE23" t="n">
         <v>9</v>
@@ -3290,7 +3290,7 @@
         <v>9.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
@@ -3331,49 +3331,49 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K24" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N24" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V24" t="n">
         <v>13</v>
@@ -3388,37 +3388,37 @@
         <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
         <v>67</v>
       </c>
       <c r="AD24" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
       </c>
       <c r="AF24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG24" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG24" t="n">
-        <v>10</v>
-      </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
         <v>1.05</v>
@@ -3474,10 +3474,10 @@
         <v>3.5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O25" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P25" t="n">
         <v>1.4</v>
@@ -3492,16 +3492,16 @@
         <v>1.91</v>
       </c>
       <c r="T25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V25" t="n">
         <v>8.5</v>
       </c>
       <c r="W25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X25" t="n">
         <v>15</v>
@@ -3510,10 +3510,10 @@
         <v>26</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB25" t="n">
         <v>15</v>
@@ -3525,16 +3525,16 @@
         <v>251</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="n">
         <v>34</v>
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="J26" t="n">
         <v>1.05</v>
@@ -3608,28 +3608,28 @@
         <v>2.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
         <v>9.5</v>
       </c>
       <c r="U26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V26" t="n">
         <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
         <v>11</v>
@@ -3647,19 +3647,19 @@
         <v>251</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI26" t="n">
         <v>19</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>29</v>
@@ -3697,13 +3697,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3739,22 +3739,22 @@
         <v>11</v>
       </c>
       <c r="U27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
         <v>23</v>
       </c>
       <c r="Z27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
         <v>7</v>
@@ -3769,19 +3769,19 @@
         <v>126</v>
       </c>
       <c r="AE27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF27" t="n">
         <v>15</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
         <v>23</v>
@@ -3840,10 +3840,10 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>
@@ -3941,49 +3941,49 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H29" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J29" t="n">
         <v>1.05</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M29" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N29" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O29" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="R29" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S29" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="T29" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U29" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="V29" t="n">
         <v>8.25</v>
@@ -3995,28 +3995,28 @@
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>50</v>
       </c>
       <c r="AD29" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE29" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG29" t="n">
         <v>11.75</v>
@@ -4028,7 +4028,7 @@
         <v>28</v>
       </c>
       <c r="AJ29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
@@ -662,16 +662,16 @@
         <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -695,16 +695,16 @@
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>41</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA2" t="n">
         <v>9</v>
@@ -906,16 +906,16 @@
         <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N4" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="O4" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
         <v>12</v>
@@ -972,13 +972,13 @@
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
@@ -1034,16 +1034,16 @@
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O5" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R5" t="n">
         <v>1.8</v>
@@ -1052,13 +1052,13 @@
         <v>1.95</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W5" t="n">
         <v>9</v>
@@ -1070,13 +1070,13 @@
         <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
         <v>51</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1156,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O6" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P6" t="n">
         <v>1.33</v>
@@ -1177,16 +1177,16 @@
         <v>8.5</v>
       </c>
       <c r="U6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V6" t="n">
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>23</v>
@@ -1257,55 +1257,55 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1314,37 +1314,37 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>7.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD7" t="n">
         <v>126</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1400,10 +1400,10 @@
         <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
         <v>1.62</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1540,40 +1540,40 @@
         <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U9" t="n">
+        <v>17</v>
+      </c>
+      <c r="V9" t="n">
         <v>15</v>
-      </c>
-      <c r="V9" t="n">
-        <v>13</v>
       </c>
       <c r="W9" t="n">
         <v>41</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="n">
         <v>51</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA9" t="n">
         <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
         <v>9</v>
@@ -1626,7 +1626,7 @@
         <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
         <v>3.9</v>
@@ -1638,16 +1638,16 @@
         <v>12</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O10" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1662,7 +1662,7 @@
         <v>2.05</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U10" t="n">
         <v>9.5</v>
@@ -1683,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
@@ -1692,7 +1692,7 @@
         <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
         <v>4.33</v>
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U11" t="n">
         <v>8.5</v>
@@ -1793,7 +1793,7 @@
         <v>8.5</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -1805,7 +1805,7 @@
         <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="n">
         <v>15</v>
@@ -2111,76 +2111,76 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
       </c>
       <c r="K14" t="n">
+        <v>15</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T14" t="n">
+        <v>12</v>
+      </c>
+      <c r="U14" t="n">
         <v>17</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>13</v>
-      </c>
-      <c r="U14" t="n">
-        <v>19</v>
       </c>
       <c r="V14" t="n">
         <v>11</v>
       </c>
       <c r="W14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
         <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>34</v>
       </c>
       <c r="AD14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE14" t="n">
         <v>11</v>
@@ -2192,10 +2192,10 @@
         <v>9.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>21</v>
@@ -2242,22 +2242,22 @@
         <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N15" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P15" t="n">
         <v>1.44</v>
@@ -2355,19 +2355,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
         <v>1.33</v>
@@ -2397,7 +2397,7 @@
         <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V16" t="n">
         <v>12</v>
@@ -2409,7 +2409,7 @@
         <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z16" t="n">
         <v>9</v>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>19</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
         <v>1.08</v>
@@ -2665,7 +2665,7 @@
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD18" t="n">
         <v>501</v>
@@ -2721,79 +2721,79 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
         <v>2.38</v>
       </c>
       <c r="J19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K19" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N19" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U19" t="n">
         <v>13</v>
       </c>
       <c r="V19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W19" t="n">
+        <v>34</v>
+      </c>
+      <c r="X19" t="n">
         <v>29</v>
       </c>
-      <c r="X19" t="n">
-        <v>26</v>
-      </c>
       <c r="Y19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA19" t="n">
         <v>6</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
         <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF19" t="n">
         <v>11</v>
@@ -2864,10 +2864,10 @@
         <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O20" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -2876,13 +2876,13 @@
         <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S20" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U20" t="n">
         <v>5.5</v>
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="n">
         <v>501</v>
@@ -2965,43 +2965,43 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
         <v>1.38</v>
       </c>
       <c r="J21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N21" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="O21" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="P21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
         <v>17</v>
@@ -3022,28 +3022,28 @@
         <v>51</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH21" t="n">
         <v>9</v>
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J22" t="n">
         <v>1.05</v>
@@ -3108,16 +3108,16 @@
         <v>3.4</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O22" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R22" t="n">
         <v>1.8</v>
@@ -3126,7 +3126,7 @@
         <v>1.91</v>
       </c>
       <c r="T22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U22" t="n">
         <v>15</v>
@@ -3135,7 +3135,7 @@
         <v>11</v>
       </c>
       <c r="W22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X22" t="n">
         <v>23</v>
@@ -3147,7 +3147,7 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
@@ -3159,7 +3159,7 @@
         <v>251</v>
       </c>
       <c r="AE22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -3221,7 +3221,7 @@
         <v>1.04</v>
       </c>
       <c r="K23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L23" t="n">
         <v>1.25</v>
@@ -3331,19 +3331,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J24" t="n">
         <v>1.08</v>
       </c>
       <c r="K24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.44</v>
@@ -3391,22 +3391,22 @@
         <v>7.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
         <v>67</v>
       </c>
       <c r="AD24" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG24" t="n">
         <v>9.5</v>
@@ -3453,46 +3453,46 @@
         </is>
       </c>
       <c r="G25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K25" t="n">
+        <v>10</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O25" t="n">
         <v>1.75</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K25" t="n">
-        <v>11</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.93</v>
-      </c>
       <c r="P25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S25" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U25" t="n">
         <v>8.5</v>
@@ -3507,34 +3507,34 @@
         <v>15</v>
       </c>
       <c r="Y25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI25" t="n">
         <v>34</v>
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>1.05</v>
@@ -3608,31 +3608,31 @@
         <v>2.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA26" t="n">
         <v>7</v>
@@ -3647,22 +3647,22 @@
         <v>251</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -3697,31 +3697,31 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
         <v>2.55</v>
       </c>
       <c r="J27" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L27" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M27" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O27" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="P27" t="n">
         <v>1.33</v>
@@ -3730,10 +3730,10 @@
         <v>3.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T27" t="n">
         <v>11</v>
@@ -3751,22 +3751,22 @@
         <v>19</v>
       </c>
       <c r="Y27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z27" t="n">
         <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB27" t="n">
         <v>12</v>
       </c>
       <c r="AC27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE27" t="n">
         <v>11</v>
@@ -3784,7 +3784,7 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -3834,16 +3834,16 @@
         <v>11</v>
       </c>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M28" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O28" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
@@ -650,10 +650,10 @@
         <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.07</v>
@@ -769,25 +769,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
         <v>2.2</v>
@@ -796,22 +796,22 @@
         <v>1.67</v>
       </c>
       <c r="P3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V3" t="n">
         <v>11</v>
@@ -826,7 +826,7 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
@@ -835,10 +835,10 @@
         <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
@@ -847,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>34</v>
@@ -900,10 +900,10 @@
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -912,10 +912,10 @@
         <v>3.75</v>
       </c>
       <c r="N4" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="O4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1156,16 +1156,16 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O6" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
         <v>1.67</v>
@@ -1177,22 +1177,22 @@
         <v>8.5</v>
       </c>
       <c r="U6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V6" t="n">
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
+        <v>17</v>
+      </c>
+      <c r="X6" t="n">
         <v>15</v>
-      </c>
-      <c r="X6" t="n">
-        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>23</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
@@ -1257,55 +1257,55 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N7" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="O7" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="P7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="U7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1314,25 +1314,25 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
@@ -1341,10 +1341,10 @@
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
         <v>1.13</v>
@@ -1400,10 +1400,10 @@
         <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
         <v>1.62</v>
@@ -1412,25 +1412,25 @@
         <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W8" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>41</v>
@@ -1439,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1451,22 +1451,22 @@
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1501,94 +1501,94 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
         <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="K9" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="M9" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="N9" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="U9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="W9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AA9" t="n">
         <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
@@ -1745,49 +1745,49 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M11" t="n">
         <v>4.33</v>
       </c>
-      <c r="J11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K11" t="n">
-        <v>13</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
       <c r="N11" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P11" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="U11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
@@ -1799,40 +1799,40 @@
         <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE11" t="n">
         <v>15</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1912,10 +1912,10 @@
         <v>13</v>
       </c>
       <c r="V12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
@@ -1924,7 +1924,7 @@
         <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
         <v>6</v>
@@ -1992,10 +1992,10 @@
         <v>5.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J13" t="n">
         <v>1.07</v>
@@ -2004,31 +2004,31 @@
         <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U13" t="n">
         <v>26</v>
@@ -2046,28 +2046,28 @@
         <v>51</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
         <v>7</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD13" t="n">
         <v>501</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2132,10 +2132,10 @@
         <v>4.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="O14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P14" t="n">
         <v>1.3</v>
@@ -2150,7 +2150,7 @@
         <v>2.38</v>
       </c>
       <c r="T14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U14" t="n">
         <v>17</v>
@@ -2165,7 +2165,7 @@
         <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
         <v>15</v>
@@ -2180,7 +2180,7 @@
         <v>34</v>
       </c>
       <c r="AD14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE14" t="n">
         <v>11</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="J15" t="n">
         <v>1.08</v>
@@ -2254,70 +2254,70 @@
         <v>2.75</v>
       </c>
       <c r="N15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
         <v>7.5</v>
       </c>
       <c r="U15" t="n">
+        <v>13</v>
+      </c>
+      <c r="V15" t="n">
         <v>11</v>
       </c>
-      <c r="V15" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W15" t="n">
+        <v>29</v>
+      </c>
+      <c r="X15" t="n">
         <v>23</v>
-      </c>
-      <c r="X15" t="n">
-        <v>21</v>
       </c>
       <c r="Y15" t="n">
         <v>34</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="n">
         <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
@@ -2370,16 +2370,16 @@
         <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
         <v>2.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P16" t="n">
         <v>1.44</v>
@@ -2498,10 +2498,10 @@
         <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="O17" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2605,7 +2605,7 @@
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
         <v>1.08</v>
@@ -2623,7 +2623,7 @@
         <v>2.35</v>
       </c>
       <c r="O18" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P18" t="n">
         <v>1.53</v>
@@ -2641,7 +2641,7 @@
         <v>5.5</v>
       </c>
       <c r="U18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
@@ -2662,7 +2662,7 @@
         <v>6.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
         <v>67</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
         <v>1.08</v>
@@ -2736,10 +2736,10 @@
         <v>7.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N19" t="n">
         <v>2.35</v>
@@ -2754,25 +2754,25 @@
         <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U19" t="n">
+        <v>17</v>
+      </c>
+      <c r="V19" t="n">
         <v>13</v>
       </c>
-      <c r="V19" t="n">
-        <v>12</v>
-      </c>
       <c r="W19" t="n">
+        <v>41</v>
+      </c>
+      <c r="X19" t="n">
         <v>34</v>
-      </c>
-      <c r="X19" t="n">
-        <v>29</v>
       </c>
       <c r="Y19" t="n">
         <v>41</v>
@@ -2784,25 +2784,25 @@
         <v>6</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
@@ -2846,10 +2846,10 @@
         <v>1.33</v>
       </c>
       <c r="H20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
         <v>1.06</v>
@@ -2858,58 +2858,58 @@
         <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="P20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>5.5</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W20" t="n">
         <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD20" t="n">
         <v>501</v>
@@ -2921,16 +2921,16 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH20" t="n">
         <v>126</v>
       </c>
       <c r="AI20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -2965,19 +2965,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
         <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>1.25</v>
@@ -2998,10 +2998,10 @@
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T21" t="n">
         <v>17</v>
@@ -3025,25 +3025,25 @@
         <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE21" t="n">
         <v>6.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH21" t="n">
         <v>9</v>
@@ -3090,7 +3090,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
         <v>2.25</v>
@@ -3114,19 +3114,19 @@
         <v>1.83</v>
       </c>
       <c r="P22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U22" t="n">
         <v>15</v>
@@ -3138,7 +3138,7 @@
         <v>34</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
         <v>34</v>
@@ -3147,7 +3147,7 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
@@ -3159,7 +3159,7 @@
         <v>251</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
@@ -3331,19 +3331,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
         <v>2.05</v>
       </c>
       <c r="J24" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L24" t="n">
         <v>1.44</v>
@@ -3352,25 +3352,25 @@
         <v>2.63</v>
       </c>
       <c r="N24" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P24" t="n">
         <v>1.57</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q24" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U24" t="n">
         <v>17</v>
@@ -3382,13 +3382,13 @@
         <v>41</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="n">
         <v>6.5</v>
@@ -3415,10 +3415,10 @@
         <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
         <v>1.06</v>
@@ -3504,13 +3504,13 @@
         <v>15</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
         <v>29</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA25" t="n">
         <v>6.5</v>
@@ -3697,13 +3697,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="n">
         <v>1.04</v>
@@ -3712,16 +3712,16 @@
         <v>13</v>
       </c>
       <c r="L27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N27" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P27" t="n">
         <v>1.33</v>
@@ -3730,22 +3730,22 @@
         <v>3.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V27" t="n">
         <v>10</v>
       </c>
       <c r="W27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X27" t="n">
         <v>19</v>
@@ -3781,7 +3781,7 @@
         <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>26</v>
@@ -3819,13 +3819,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
         <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J28" t="n">
         <v>1.05</v>
@@ -3834,22 +3834,22 @@
         <v>11</v>
       </c>
       <c r="L28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M28" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P28" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R28" t="n">
         <v>1.73</v>
@@ -3864,28 +3864,28 @@
         <v>19</v>
       </c>
       <c r="V28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W28" t="n">
         <v>41</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y28" t="n">
         <v>34</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
         <v>7</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD28" t="n">
         <v>201</v>
@@ -3894,10 +3894,10 @@
         <v>8</v>
       </c>
       <c r="AF28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH28" t="n">
         <v>17</v>
@@ -3906,7 +3906,7 @@
         <v>15</v>
       </c>
       <c r="AJ28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -3941,67 +3941,67 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K29" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="M29" t="n">
-        <v>3.6</v>
+        <v>4.05</v>
       </c>
       <c r="N29" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="P29" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="R29" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S29" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T29" t="n">
+        <v>9</v>
+      </c>
+      <c r="U29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>8</v>
+      </c>
+      <c r="W29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z29" t="n">
         <v>8.5</v>
       </c>
-      <c r="U29" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="V29" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W29" t="n">
-        <v>18</v>
-      </c>
-      <c r="X29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AA29" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB29" t="n">
         <v>13</v>
@@ -4010,25 +4010,25 @@
         <v>50</v>
       </c>
       <c r="AD29" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE29" t="n">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AI29" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AJ29" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
@@ -659,7 +659,7 @@
         <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -680,10 +680,10 @@
         <v>2.63</v>
       </c>
       <c r="R2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
@@ -692,13 +692,13 @@
         <v>6.5</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W2" t="n">
         <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>41</v>
@@ -707,10 +707,10 @@
         <v>8.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>101</v>
@@ -719,7 +719,7 @@
         <v>451</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -847,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>34</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.13</v>
@@ -1400,10 +1400,10 @@
         <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
         <v>1.62</v>
@@ -1412,34 +1412,34 @@
         <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
         <v>5.5</v>
       </c>
       <c r="U8" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
         <v>41</v>
       </c>
       <c r="Z8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA8" t="n">
         <v>6</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1451,19 +1451,19 @@
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
         <v>51</v>
@@ -1501,91 +1501,91 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="I9" t="n">
         <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="M9" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AA9" t="n">
         <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>51</v>
@@ -1629,13 +1629,13 @@
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
         <v>1.22</v>
@@ -1644,10 +1644,10 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1662,7 +1662,7 @@
         <v>2.05</v>
       </c>
       <c r="T10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U10" t="n">
         <v>9.5</v>
@@ -1671,7 +1671,7 @@
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1748,46 +1748,46 @@
         <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.7</v>
       </c>
-      <c r="O11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U11" t="n">
         <v>9</v>
-      </c>
-      <c r="U11" t="n">
-        <v>9.5</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
@@ -1799,16 +1799,16 @@
         <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>7.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>41</v>
@@ -1823,13 +1823,13 @@
         <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
         <v>34</v>
@@ -1992,88 +1992,88 @@
         <v>5.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N13" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="O13" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U13" t="n">
         <v>26</v>
       </c>
       <c r="V13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W13" t="n">
         <v>51</v>
       </c>
       <c r="X13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y13" t="n">
         <v>51</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA13" t="n">
         <v>7</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="n">
         <v>501</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
         <v>34</v>
@@ -2126,16 +2126,16 @@
         <v>15</v>
       </c>
       <c r="L14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P14" t="n">
         <v>1.3</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
         <v>1.08</v>
@@ -2257,7 +2257,7 @@
         <v>2.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P15" t="n">
         <v>1.5</v>
@@ -2275,7 +2275,7 @@
         <v>7.5</v>
       </c>
       <c r="U15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V15" t="n">
         <v>11</v>
@@ -2287,10 +2287,10 @@
         <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA15" t="n">
         <v>6</v>
@@ -2302,7 +2302,7 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE15" t="n">
         <v>7.5</v>
@@ -2311,7 +2311,7 @@
         <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>26</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
         <v>1.06</v>
@@ -2379,7 +2379,7 @@
         <v>2.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P16" t="n">
         <v>1.44</v>
@@ -2397,7 +2397,7 @@
         <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V16" t="n">
         <v>12</v>
@@ -2409,10 +2409,10 @@
         <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
         <v>6.5</v>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>19</v>
@@ -2498,10 +2498,10 @@
         <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O17" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
         <v>1.08</v>
@@ -2623,7 +2623,7 @@
         <v>2.35</v>
       </c>
       <c r="O18" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P18" t="n">
         <v>1.53</v>
@@ -2647,10 +2647,10 @@
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
         <v>34</v>
@@ -2671,16 +2671,16 @@
         <v>501</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
         <v>41</v>
@@ -2736,28 +2736,28 @@
         <v>7.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N19" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T19" t="n">
         <v>8.5</v>
@@ -2781,19 +2781,19 @@
         <v>7.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
         <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF19" t="n">
         <v>9</v>
@@ -2805,7 +2805,7 @@
         <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
         <v>34</v>
@@ -2852,10 +2852,10 @@
         <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -2870,19 +2870,19 @@
         <v>1.75</v>
       </c>
       <c r="P20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U20" t="n">
         <v>5.5</v>
@@ -2894,16 +2894,16 @@
         <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB20" t="n">
         <v>29</v>
@@ -3108,10 +3108,10 @@
         <v>3.4</v>
       </c>
       <c r="N22" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P22" t="n">
         <v>1.44</v>
@@ -3230,10 +3230,10 @@
         <v>3.75</v>
       </c>
       <c r="N23" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P23" t="n">
         <v>1.36</v>
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
         <v>1.1</v>
@@ -3382,7 +3382,7 @@
         <v>41</v>
       </c>
       <c r="X24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
@@ -3391,7 +3391,7 @@
         <v>7</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB24" t="n">
         <v>19</v>
@@ -3578,10 +3578,10 @@
         <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J26" t="n">
         <v>1.05</v>
@@ -3596,10 +3596,10 @@
         <v>3.5</v>
       </c>
       <c r="N26" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O26" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -3623,7 +3623,7 @@
         <v>12</v>
       </c>
       <c r="W26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X26" t="n">
         <v>26</v>
@@ -3632,7 +3632,7 @@
         <v>34</v>
       </c>
       <c r="Z26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA26" t="n">
         <v>7</v>
@@ -3647,7 +3647,7 @@
         <v>251</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
         <v>10</v>
@@ -3941,13 +3941,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J29" t="n">
         <v>1.04</v>
@@ -3962,49 +3962,49 @@
         <v>4.05</v>
       </c>
       <c r="N29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O29" t="n">
         <v>2.18</v>
       </c>
       <c r="P29" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S29" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T29" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U29" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V29" t="n">
         <v>8</v>
       </c>
       <c r="W29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X29" t="n">
         <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z29" t="n">
         <v>8.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC29" t="n">
         <v>50</v>
@@ -4013,19 +4013,19 @@
         <v>300</v>
       </c>
       <c r="AE29" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI29" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ29" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
@@ -656,22 +656,22 @@
         <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -778,10 +778,10 @@
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.4</v>
@@ -802,10 +802,10 @@
         <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -826,7 +826,7 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
@@ -838,7 +838,7 @@
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -912,10 +912,10 @@
         <v>3.75</v>
       </c>
       <c r="N4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="O4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -924,16 +924,16 @@
         <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V4" t="n">
         <v>10</v>
@@ -942,13 +942,13 @@
         <v>23</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>7</v>
@@ -960,19 +960,19 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H5" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
@@ -1034,16 +1034,16 @@
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O5" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
         <v>1.8</v>
@@ -1052,13 +1052,13 @@
         <v>1.95</v>
       </c>
       <c r="T5" t="n">
+        <v>10</v>
+      </c>
+      <c r="U5" t="n">
+        <v>8</v>
+      </c>
+      <c r="V5" t="n">
         <v>9</v>
-      </c>
-      <c r="U5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>8.5</v>
       </c>
       <c r="W5" t="n">
         <v>9</v>
@@ -1070,13 +1070,13 @@
         <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
         <v>51</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
         <v>1.13</v>
@@ -1421,13 +1421,13 @@
         <v>5.5</v>
       </c>
       <c r="U8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
         <v>23</v>
@@ -1451,19 +1451,19 @@
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG8" t="n">
         <v>15</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="n">
         <v>51</v>
@@ -1501,46 +1501,46 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
         <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="M9" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U9" t="n">
         <v>17</v>
@@ -1549,43 +1549,43 @@
         <v>17</v>
       </c>
       <c r="W9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y9" t="n">
         <v>67</v>
       </c>
       <c r="Z9" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AA9" t="n">
         <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AF9" t="n">
         <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
         <v>51</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1650,10 +1650,10 @@
         <v>2.05</v>
       </c>
       <c r="P10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R10" t="n">
         <v>1.7</v>
@@ -1674,7 +1674,7 @@
         <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1698,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1707,7 +1707,7 @@
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
@@ -1745,49 +1745,49 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="O11" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="P11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
@@ -1799,16 +1799,16 @@
         <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB11" t="n">
         <v>13</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>41</v>
@@ -1826,7 +1826,7 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="n">
         <v>34</v>
@@ -1867,19 +1867,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
         <v>1.33</v>
@@ -1912,10 +1912,10 @@
         <v>13</v>
       </c>
       <c r="V12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
@@ -2001,7 +2001,7 @@
         <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2111,19 +2111,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
         <v>1.17</v>
@@ -2132,10 +2132,10 @@
         <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O14" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P14" t="n">
         <v>1.3</v>
@@ -2144,10 +2144,10 @@
         <v>3.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
         <v>13</v>
@@ -2162,19 +2162,19 @@
         <v>29</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
         <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
         <v>34</v>
@@ -2183,10 +2183,10 @@
         <v>101</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
         <v>9.5</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J16" t="n">
         <v>1.06</v>
@@ -2388,16 +2388,16 @@
         <v>2.63</v>
       </c>
       <c r="R16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T16" t="n">
         <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V16" t="n">
         <v>12</v>
@@ -2412,7 +2412,7 @@
         <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA16" t="n">
         <v>6.5</v>
@@ -2424,7 +2424,7 @@
         <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE16" t="n">
         <v>7</v>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>19</v>
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2522,19 +2522,19 @@
         <v>13</v>
       </c>
       <c r="V17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
         <v>34</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
@@ -2546,19 +2546,19 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
         <v>1.08</v>
@@ -2620,10 +2620,10 @@
         <v>2.63</v>
       </c>
       <c r="N18" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P18" t="n">
         <v>1.53</v>
@@ -2632,40 +2632,40 @@
         <v>2.38</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T18" t="n">
         <v>5.5</v>
       </c>
       <c r="U18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X18" t="n">
         <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA18" t="n">
         <v>6.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="n">
         <v>501</v>
@@ -2674,13 +2674,13 @@
         <v>9</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="n">
         <v>41</v>
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
@@ -2733,7 +2733,7 @@
         <v>1.08</v>
       </c>
       <c r="K19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
         <v>1.4</v>
@@ -2742,10 +2742,10 @@
         <v>2.75</v>
       </c>
       <c r="N19" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P19" t="n">
         <v>1.5</v>
@@ -2790,13 +2790,13 @@
         <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE19" t="n">
         <v>6.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG19" t="n">
         <v>9.5</v>
@@ -2849,13 +2849,13 @@
         <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -2864,25 +2864,25 @@
         <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>5.5</v>
@@ -2891,16 +2891,16 @@
         <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA20" t="n">
         <v>9.5</v>
@@ -2909,7 +2909,7 @@
         <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD20" t="n">
         <v>501</v>
@@ -2924,7 +2924,7 @@
         <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI20" t="n">
         <v>81</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H21" t="n">
         <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J21" t="n">
         <v>1.04</v>
@@ -2986,10 +2986,10 @@
         <v>3.75</v>
       </c>
       <c r="N21" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>1.36</v>
@@ -2998,10 +2998,10 @@
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
         <v>17</v>
@@ -3025,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB21" t="n">
         <v>21</v>
@@ -3034,7 +3034,7 @@
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE21" t="n">
         <v>6.5</v>
@@ -3090,10 +3090,10 @@
         <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
         <v>1.05</v>
@@ -3108,25 +3108,25 @@
         <v>3.4</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O22" t="n">
         <v>1.85</v>
       </c>
       <c r="P22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S22" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U22" t="n">
         <v>15</v>
@@ -3144,10 +3144,10 @@
         <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
@@ -3159,19 +3159,19 @@
         <v>251</v>
       </c>
       <c r="AE22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
         <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -3209,46 +3209,46 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N23" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="P23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U23" t="n">
         <v>15</v>
@@ -3257,34 +3257,34 @@
         <v>11</v>
       </c>
       <c r="W23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD23" t="n">
         <v>201</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
         <v>9.5</v>
@@ -3296,7 +3296,7 @@
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J24" t="n">
         <v>1.1</v>
@@ -3382,7 +3382,7 @@
         <v>41</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
@@ -3391,7 +3391,7 @@
         <v>7</v>
       </c>
       <c r="AA24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB24" t="n">
         <v>19</v>
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>1.05</v>
@@ -3608,10 +3608,10 @@
         <v>2.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -3620,10 +3620,10 @@
         <v>17</v>
       </c>
       <c r="V26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X26" t="n">
         <v>26</v>
@@ -3718,10 +3718,10 @@
         <v>4.33</v>
       </c>
       <c r="N27" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O27" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P27" t="n">
         <v>1.33</v>
@@ -3944,10 +3944,10 @@
         <v>1.7</v>
       </c>
       <c r="H29" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J29" t="n">
         <v>1.04</v>
@@ -3956,40 +3956,40 @@
         <v>8.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M29" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="N29" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O29" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="P29" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R29" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S29" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T29" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U29" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V29" t="n">
         <v>8</v>
       </c>
       <c r="W29" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X29" t="n">
         <v>12.5</v>
@@ -4001,19 +4001,19 @@
         <v>8.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC29" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD29" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF29" t="n">
         <v>27</v>
@@ -4028,7 +4028,7 @@
         <v>37</v>
       </c>
       <c r="AJ29" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>1.06</v>
@@ -668,28 +668,28 @@
         <v>3.4</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
@@ -701,10 +701,10 @@
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
         <v>8.5</v>
@@ -713,7 +713,7 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="n">
         <v>451</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>1.4</v>
@@ -790,10 +790,10 @@
         <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
         <v>1.5</v>
@@ -802,13 +802,13 @@
         <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U3" t="n">
         <v>12</v>
@@ -817,16 +817,16 @@
         <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X3" t="n">
         <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
@@ -838,19 +838,19 @@
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="n">
         <v>29</v>
@@ -891,31 +891,31 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
         <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="O4" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -924,16 +924,16 @@
         <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V4" t="n">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>23</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB4" t="n">
         <v>15</v>
@@ -963,10 +963,10 @@
         <v>251</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
@@ -978,7 +978,7 @@
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -1013,94 +1013,94 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="O5" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="P5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF5" t="n">
         <v>51</v>
       </c>
-      <c r="AD5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AI5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>51</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -1379,31 +1379,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
         <v>1.62</v>
@@ -1412,16 +1412,16 @@
         <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V8" t="n">
         <v>10</v>
@@ -1436,13 +1436,13 @@
         <v>41</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="n">
         <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
         <v>81</v>
@@ -1451,19 +1451,19 @@
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
         <v>51</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="I9" t="n">
         <v>2.2</v>
@@ -1540,13 +1540,13 @@
         <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W9" t="n">
         <v>51</v>
@@ -1573,10 +1573,10 @@
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="n">
         <v>1.22</v>
@@ -1644,37 +1644,37 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
+        <v>17</v>
+      </c>
+      <c r="X10" t="n">
         <v>15</v>
-      </c>
-      <c r="X10" t="n">
-        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1683,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
@@ -1698,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1707,7 +1707,7 @@
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
@@ -1745,37 +1745,37 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
         <v>1.03</v>
       </c>
       <c r="K11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O11" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R11" t="n">
         <v>1.62</v>
@@ -1784,31 +1784,31 @@
         <v>2.2</v>
       </c>
       <c r="T11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U11" t="n">
         <v>9</v>
-      </c>
-      <c r="U11" t="n">
-        <v>9.5</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
       </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
         <v>21</v>
       </c>
       <c r="Z11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB11" t="n">
         <v>15</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>41</v>
@@ -1817,10 +1817,10 @@
         <v>151</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="n">
         <v>1.07</v>
@@ -1906,19 +1906,19 @@
         <v>1.91</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W12" t="n">
+        <v>34</v>
+      </c>
+      <c r="X12" t="n">
         <v>29</v>
-      </c>
-      <c r="X12" t="n">
-        <v>23</v>
       </c>
       <c r="Y12" t="n">
         <v>34</v>
@@ -1927,7 +1927,7 @@
         <v>9</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB12" t="n">
         <v>15</v>
@@ -1939,22 +1939,22 @@
         <v>301</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
@@ -2010,10 +2010,10 @@
         <v>2.75</v>
       </c>
       <c r="N13" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P13" t="n">
         <v>1.5</v>
@@ -2022,25 +2022,25 @@
         <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T13" t="n">
         <v>11</v>
       </c>
       <c r="U13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W13" t="n">
         <v>51</v>
       </c>
       <c r="X13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y13" t="n">
         <v>51</v>
@@ -2070,7 +2070,7 @@
         <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>17</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J16" t="n">
         <v>1.06</v>
@@ -2388,16 +2388,16 @@
         <v>2.63</v>
       </c>
       <c r="R16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T16" t="n">
         <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V16" t="n">
         <v>12</v>
@@ -2406,13 +2406,13 @@
         <v>34</v>
       </c>
       <c r="X16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
         <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
         <v>6.5</v>
@@ -2424,7 +2424,7 @@
         <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE16" t="n">
         <v>7</v>
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>19</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
         <v>1.07</v>
@@ -2492,16 +2492,16 @@
         <v>9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2516,16 +2516,16 @@
         <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U17" t="n">
         <v>13</v>
       </c>
       <c r="V17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X17" t="n">
         <v>23</v>
@@ -2558,7 +2558,7 @@
         <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
@@ -2599,37 +2599,37 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
         <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R18" t="n">
         <v>2.2</v>
@@ -2644,7 +2644,7 @@
         <v>7.5</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W18" t="n">
         <v>15</v>
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
@@ -2742,10 +2742,10 @@
         <v>2.75</v>
       </c>
       <c r="N19" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P19" t="n">
         <v>1.5</v>
@@ -2790,13 +2790,13 @@
         <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE19" t="n">
         <v>6.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG19" t="n">
         <v>9.5</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
         <v>1.07</v>
@@ -2885,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="U20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>9.5</v>
@@ -2906,7 +2906,7 @@
         <v>9.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
         <v>126</v>
@@ -2915,22 +2915,22 @@
         <v>501</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH20" t="n">
         <v>151</v>
       </c>
       <c r="AI20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
         <v>4.5</v>
@@ -2980,16 +2980,16 @@
         <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P21" t="n">
         <v>1.36</v>
@@ -2998,10 +2998,10 @@
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T21" t="n">
         <v>17</v>
@@ -3010,7 +3010,7 @@
         <v>41</v>
       </c>
       <c r="V21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W21" t="n">
         <v>81</v>
@@ -3022,7 +3022,7 @@
         <v>51</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
         <v>9</v>
@@ -3034,7 +3034,7 @@
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE21" t="n">
         <v>6.5</v>
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
         <v>1.05</v>
@@ -3102,16 +3102,16 @@
         <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O22" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P22" t="n">
         <v>1.4</v>
@@ -3120,55 +3120,55 @@
         <v>2.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y22" t="n">
         <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA22" t="n">
         <v>7</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="n">
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AG22" t="n">
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="J24" t="n">
         <v>1.1</v>
@@ -3352,10 +3352,10 @@
         <v>2.63</v>
       </c>
       <c r="N24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
         <v>1.57</v>
@@ -3364,25 +3364,25 @@
         <v>2.25</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T24" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X24" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
@@ -3391,7 +3391,7 @@
         <v>7</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB24" t="n">
         <v>19</v>
@@ -3403,19 +3403,19 @@
         <v>501</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3697,46 +3697,46 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L27" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M27" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="N27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.67</v>
       </c>
-      <c r="O27" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U27" t="n">
         <v>13</v>
@@ -3754,13 +3754,13 @@
         <v>26</v>
       </c>
       <c r="Z27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA27" t="n">
         <v>6.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
         <v>41</v>
@@ -3769,22 +3769,22 @@
         <v>151</v>
       </c>
       <c r="AE27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
         <v>15</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -3819,19 +3819,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="J28" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L28" t="n">
         <v>1.25</v>
@@ -3840,43 +3840,43 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W28" t="n">
         <v>41</v>
       </c>
       <c r="X28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
         <v>7</v>
@@ -3891,16 +3891,16 @@
         <v>201</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG28" t="n">
         <v>8.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>15</v>
@@ -3941,46 +3941,46 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H29" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="J29" t="n">
         <v>1.04</v>
       </c>
       <c r="K29" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L29" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M29" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="N29" t="n">
         <v>1.65</v>
       </c>
       <c r="O29" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="P29" t="n">
         <v>1.31</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S29" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U29" t="n">
         <v>9</v>
@@ -3989,46 +3989,46 @@
         <v>8</v>
       </c>
       <c r="W29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
         <v>21</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD29" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE29" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG29" t="n">
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="n">
         <v>37</v>
       </c>
       <c r="AJ29" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
         <v>1.11</v>
@@ -1418,19 +1418,19 @@
         <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U8" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
         <v>41</v>
@@ -1445,28 +1445,28 @@
         <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>41</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1528,10 +1528,10 @@
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
         <v>2.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-01.xlsx
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
         <v>2.63</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
         <v>1.18</v>
@@ -1540,13 +1540,13 @@
         <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U9" t="n">
         <v>19</v>
       </c>
       <c r="V9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W9" t="n">
         <v>51</v>
@@ -1573,10 +1573,10 @@
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
